--- a/databases/base_alunos_curso_marca_v3.xlsx
+++ b/databases/base_alunos_curso_marca_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2E8D11-DCC4-4ACA-BF84-D05924FAE26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B33A31-7ACA-4D49-92D0-EC64F6AB3377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4531,7 +4531,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0507B60-2638-4BD5-A83B-7BC18F0E113E}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0507B60-2638-4BD5-A83B-7BC18F0E113E}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -4884,8 +4884,7 @@
   <autoFilter ref="A1:F502" xr:uid="{6FF373C7-17FE-4614-8DB2-59FB74EB37F2}">
     <filterColumn colId="1">
       <filters>
-        <filter val="UNIDADE ACADÊMICA GUARULHOS"/>
-        <filter val="UNIDADE ACADÊMICA SÃO BERNARDO DO CAMPO"/>
+        <filter val="AMERICANA - JARDIM GIRASSOL"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5780,7 +5779,7 @@
   <dimension ref="A1:F502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105:F500"/>
+      <selection activeCell="I531" sqref="I531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5853,7 +5852,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5933,7 +5932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5973,7 +5972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -6073,7 +6072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -6253,7 +6252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -6473,7 +6472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -6533,7 +6532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -6773,7 +6772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -6813,7 +6812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -7053,7 +7052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -7273,7 +7272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -7873,7 +7872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
@@ -7893,7 +7892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>5</v>
       </c>
@@ -8113,7 +8112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>5</v>
       </c>
@@ -8293,7 +8292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>5</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>5</v>
       </c>
@@ -8893,7 +8892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>5</v>
       </c>
@@ -9173,7 +9172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>5</v>
       </c>
@@ -9273,7 +9272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>5</v>
       </c>
@@ -9313,7 +9312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>5</v>
       </c>
@@ -9733,7 +9732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>5</v>
       </c>
@@ -9813,7 +9812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>5</v>
       </c>
@@ -10193,7 +10192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>5</v>
       </c>
@@ -11193,7 +11192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>5</v>
       </c>
@@ -12273,7 +12272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>5</v>
       </c>
@@ -12793,7 +12792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>5</v>
       </c>
@@ -13813,7 +13812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>5</v>
       </c>
@@ -14173,7 +14172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>5</v>
       </c>
@@ -15773,7 +15772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>5</v>
       </c>

--- a/databases/base_alunos_curso_marca_v3.xlsx
+++ b/databases/base_alunos_curso_marca_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B33A31-7ACA-4D49-92D0-EC64F6AB3377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4AED93-29F5-4123-ADA1-CC5F46A64747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4531,7 +4531,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0507B60-2638-4BD5-A83B-7BC18F0E113E}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0507B60-2638-4BD5-A83B-7BC18F0E113E}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -4881,13 +4881,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FF373C7-17FE-4614-8DB2-59FB74EB37F2}" name="Dúvidas_e_Testes" displayName="Dúvidas_e_Testes" ref="A1:F502" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F502" xr:uid="{6FF373C7-17FE-4614-8DB2-59FB74EB37F2}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="AMERICANA - JARDIM GIRASSOL"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F502" xr:uid="{6FF373C7-17FE-4614-8DB2-59FB74EB37F2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F500">
     <sortCondition ref="B1:B502"/>
   </sortState>
@@ -5779,7 +5773,7 @@
   <dimension ref="A1:F502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I531" sqref="I531"/>
+      <selection activeCell="E511" sqref="E511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5812,7 +5806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5832,7 +5826,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -5852,7 +5846,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5872,7 +5866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -5892,7 +5886,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -5912,7 +5906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -5932,7 +5926,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5952,7 +5946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -5972,7 +5966,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -5992,7 +5986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -6012,7 +6006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -6032,7 +6026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -6052,7 +6046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -6072,7 +6066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -6092,7 +6086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -6112,7 +6106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -6132,7 +6126,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -6152,7 +6146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -6172,7 +6166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -6192,7 +6186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -6212,7 +6206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -6232,7 +6226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -6252,7 +6246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -6272,7 +6266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -6292,7 +6286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -6312,7 +6306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -6332,7 +6326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -6352,7 +6346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -6372,7 +6366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -6392,7 +6386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -6412,7 +6406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -6432,7 +6426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -6452,7 +6446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -6472,7 +6466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -6492,7 +6486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -6512,7 +6506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -6532,7 +6526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -6552,7 +6546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -6572,7 +6566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -6592,7 +6586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -6612,7 +6606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -6632,7 +6626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -6652,7 +6646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -6672,7 +6666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -6692,7 +6686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -6712,7 +6706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -6732,7 +6726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -6752,7 +6746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -6772,7 +6766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -6792,7 +6786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -6812,7 +6806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -6832,7 +6826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -6852,7 +6846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -6872,7 +6866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -6892,7 +6886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -6912,7 +6906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -6932,7 +6926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -6952,7 +6946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -6972,7 +6966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -6992,7 +6986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -7012,7 +7006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -7032,7 +7026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -7052,7 +7046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -7072,7 +7066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -7092,7 +7086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -7112,7 +7106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -7132,7 +7126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -7152,7 +7146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -7172,7 +7166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -7192,7 +7186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -7212,7 +7206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -7232,7 +7226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -7252,7 +7246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -7272,7 +7266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -7292,7 +7286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -7312,7 +7306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -7332,7 +7326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
@@ -7352,7 +7346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
@@ -7372,7 +7366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
@@ -7392,7 +7386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
@@ -7412,7 +7406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
@@ -7432,7 +7426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
@@ -7452,7 +7446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>5</v>
       </c>
@@ -7472,7 +7466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>5</v>
       </c>
@@ -7492,7 +7486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -7512,7 +7506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
@@ -7532,7 +7526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>5</v>
       </c>
@@ -7552,7 +7546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
@@ -7572,7 +7566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
@@ -7592,7 +7586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
@@ -7612,7 +7606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
@@ -7632,7 +7626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>5</v>
       </c>
@@ -7652,7 +7646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
@@ -7672,7 +7666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
@@ -7692,7 +7686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>5</v>
       </c>
@@ -7712,7 +7706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
@@ -7732,7 +7726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
@@ -7752,7 +7746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
@@ -7772,7 +7766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>5</v>
       </c>
@@ -7792,7 +7786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>5</v>
       </c>
@@ -7812,7 +7806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
@@ -7832,7 +7826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>5</v>
       </c>
@@ -7852,7 +7846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>5</v>
       </c>
@@ -7872,7 +7866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
@@ -7892,7 +7886,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>5</v>
       </c>
@@ -7912,7 +7906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>5</v>
       </c>
@@ -7932,7 +7926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>5</v>
       </c>
@@ -7952,7 +7946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>5</v>
       </c>
@@ -7972,7 +7966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>5</v>
       </c>
@@ -7992,7 +7986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>5</v>
       </c>
@@ -8012,7 +8006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>5</v>
       </c>
@@ -8032,7 +8026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
@@ -8052,7 +8046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>5</v>
       </c>
@@ -8072,7 +8066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
@@ -8092,7 +8086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>5</v>
       </c>
@@ -8112,7 +8106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>5</v>
       </c>
@@ -8132,7 +8126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>5</v>
       </c>
@@ -8152,7 +8146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
@@ -8172,7 +8166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>5</v>
       </c>
@@ -8192,7 +8186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>5</v>
       </c>
@@ -8212,7 +8206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>5</v>
       </c>
@@ -8232,7 +8226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>5</v>
       </c>
@@ -8252,7 +8246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>5</v>
       </c>
@@ -8272,7 +8266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>5</v>
       </c>
@@ -8292,7 +8286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>5</v>
       </c>
@@ -8312,7 +8306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>5</v>
       </c>
@@ -8332,7 +8326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>5</v>
       </c>
@@ -8352,7 +8346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>5</v>
       </c>
@@ -8372,7 +8366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>5</v>
       </c>
@@ -8392,7 +8386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>5</v>
       </c>
@@ -8412,7 +8406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>5</v>
       </c>
@@ -8432,7 +8426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>5</v>
       </c>
@@ -8452,7 +8446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>5</v>
       </c>
@@ -8472,7 +8466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>5</v>
       </c>
@@ -8492,7 +8486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>5</v>
       </c>
@@ -8512,7 +8506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>5</v>
       </c>
@@ -8532,7 +8526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>5</v>
       </c>
@@ -8552,7 +8546,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -8572,7 +8566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>5</v>
       </c>
@@ -8592,7 +8586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>5</v>
       </c>
@@ -8612,7 +8606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>5</v>
       </c>
@@ -8632,7 +8626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>5</v>
       </c>
@@ -8652,7 +8646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>5</v>
       </c>
@@ -8672,7 +8666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>5</v>
       </c>
@@ -8692,7 +8686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>5</v>
       </c>
@@ -8712,7 +8706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>5</v>
       </c>
@@ -8732,7 +8726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>5</v>
       </c>
@@ -8752,7 +8746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>5</v>
       </c>
@@ -8772,7 +8766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>5</v>
       </c>
@@ -8792,7 +8786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>5</v>
       </c>
@@ -8812,7 +8806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>5</v>
       </c>
@@ -8832,7 +8826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>5</v>
       </c>
@@ -8852,7 +8846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>5</v>
       </c>
@@ -8872,7 +8866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>5</v>
       </c>
@@ -8892,7 +8886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>5</v>
       </c>
@@ -8912,7 +8906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>5</v>
       </c>
@@ -8932,7 +8926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>5</v>
       </c>
@@ -8952,7 +8946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>5</v>
       </c>
@@ -8972,7 +8966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>5</v>
       </c>
@@ -8992,7 +8986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>5</v>
       </c>
@@ -9012,7 +9006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>5</v>
       </c>
@@ -9032,7 +9026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>5</v>
       </c>
@@ -9052,7 +9046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>5</v>
       </c>
@@ -9072,7 +9066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>5</v>
       </c>
@@ -9092,7 +9086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>5</v>
       </c>
@@ -9112,7 +9106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>5</v>
       </c>
@@ -9132,7 +9126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>5</v>
       </c>
@@ -9152,7 +9146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>5</v>
       </c>
@@ -9192,7 +9186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>5</v>
       </c>
@@ -9212,7 +9206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -9232,7 +9226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>5</v>
       </c>
@@ -9252,7 +9246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>5</v>
       </c>
@@ -9272,7 +9266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>5</v>
       </c>
@@ -9292,7 +9286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>5</v>
       </c>
@@ -9312,7 +9306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>5</v>
       </c>
@@ -9332,7 +9326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>5</v>
       </c>
@@ -9352,7 +9346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>5</v>
       </c>
@@ -9372,7 +9366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>5</v>
       </c>
@@ -9392,7 +9386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>5</v>
       </c>
@@ -9412,7 +9406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>5</v>
       </c>
@@ -9432,7 +9426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>5</v>
       </c>
@@ -9452,7 +9446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>5</v>
       </c>
@@ -9472,7 +9466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>5</v>
       </c>
@@ -9492,7 +9486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
@@ -9512,7 +9506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>5</v>
       </c>
@@ -9532,7 +9526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>5</v>
       </c>
@@ -9552,7 +9546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>5</v>
       </c>
@@ -9572,7 +9566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>5</v>
       </c>
@@ -9592,7 +9586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>5</v>
       </c>
@@ -9612,7 +9606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>5</v>
       </c>
@@ -9632,7 +9626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>5</v>
       </c>
@@ -9652,7 +9646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>5</v>
       </c>
@@ -9672,7 +9666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>5</v>
       </c>
@@ -9692,7 +9686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>5</v>
       </c>
@@ -9712,7 +9706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>5</v>
       </c>
@@ -9732,7 +9726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>5</v>
       </c>
@@ -9752,7 +9746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>5</v>
       </c>
@@ -9772,7 +9766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>5</v>
       </c>
@@ -9792,7 +9786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>5</v>
       </c>
@@ -9832,7 +9826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>5</v>
       </c>
@@ -9852,7 +9846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>5</v>
       </c>
@@ -9872,7 +9866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>5</v>
       </c>
@@ -9892,7 +9886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>5</v>
       </c>
@@ -9912,7 +9906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>5</v>
       </c>
@@ -9932,7 +9926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>5</v>
       </c>
@@ -9952,7 +9946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>5</v>
       </c>
@@ -9972,7 +9966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>5</v>
       </c>
@@ -9992,7 +9986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>5</v>
       </c>
@@ -10012,7 +10006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>5</v>
       </c>
@@ -10032,7 +10026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>5</v>
       </c>
@@ -10052,7 +10046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>5</v>
       </c>
@@ -10072,7 +10066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>5</v>
       </c>
@@ -10092,7 +10086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>5</v>
       </c>
@@ -10112,7 +10106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>5</v>
       </c>
@@ -10132,7 +10126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>5</v>
       </c>
@@ -10152,7 +10146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>5</v>
       </c>
@@ -10172,7 +10166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>5</v>
       </c>
@@ -10192,7 +10186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>5</v>
       </c>
@@ -10212,7 +10206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>5</v>
       </c>
@@ -10232,7 +10226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>5</v>
       </c>
@@ -10252,7 +10246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>5</v>
       </c>
@@ -10272,7 +10266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>5</v>
       </c>
@@ -10292,7 +10286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>5</v>
       </c>
@@ -10312,7 +10306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>5</v>
       </c>
@@ -10332,7 +10326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>5</v>
       </c>
@@ -10352,7 +10346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>5</v>
       </c>
@@ -10372,7 +10366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>5</v>
       </c>
@@ -10392,7 +10386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>5</v>
       </c>
@@ -10412,7 +10406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>5</v>
       </c>
@@ -10432,7 +10426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>5</v>
       </c>
@@ -10452,7 +10446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>5</v>
       </c>
@@ -10472,7 +10466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>5</v>
       </c>
@@ -10492,7 +10486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>5</v>
       </c>
@@ -10512,7 +10506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>5</v>
       </c>
@@ -10532,7 +10526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>5</v>
       </c>
@@ -10552,7 +10546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>5</v>
       </c>
@@ -10572,7 +10566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>5</v>
       </c>
@@ -10592,7 +10586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>5</v>
       </c>
@@ -10612,7 +10606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>5</v>
       </c>
@@ -10632,7 +10626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>5</v>
       </c>
@@ -10652,7 +10646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>5</v>
       </c>
@@ -10672,7 +10666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>5</v>
       </c>
@@ -10692,7 +10686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>5</v>
       </c>
@@ -10712,7 +10706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>5</v>
       </c>
@@ -10732,7 +10726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>5</v>
       </c>
@@ -10752,7 +10746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>5</v>
       </c>
@@ -10772,7 +10766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>5</v>
       </c>
@@ -10792,7 +10786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>5</v>
       </c>
@@ -10812,7 +10806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>5</v>
       </c>
@@ -10832,7 +10826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>5</v>
       </c>
@@ -10852,7 +10846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>5</v>
       </c>
@@ -10872,7 +10866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>5</v>
       </c>
@@ -10892,7 +10886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>5</v>
       </c>
@@ -10912,7 +10906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>5</v>
       </c>
@@ -10932,7 +10926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>5</v>
       </c>
@@ -10952,7 +10946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>5</v>
       </c>
@@ -10972,7 +10966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>5</v>
       </c>
@@ -10992,7 +10986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>5</v>
       </c>
@@ -11012,7 +11006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>5</v>
       </c>
@@ -11032,7 +11026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>5</v>
       </c>
@@ -11052,7 +11046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>5</v>
       </c>
@@ -11072,7 +11066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>5</v>
       </c>
@@ -11092,7 +11086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>5</v>
       </c>
@@ -11112,7 +11106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>5</v>
       </c>
@@ -11132,7 +11126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>5</v>
       </c>
@@ -11152,7 +11146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>5</v>
       </c>
@@ -11172,7 +11166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>5</v>
       </c>
@@ -11212,7 +11206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>5</v>
       </c>
@@ -11232,7 +11226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>5</v>
       </c>
@@ -11252,7 +11246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>5</v>
       </c>
@@ -11272,7 +11266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>5</v>
       </c>
@@ -11292,7 +11286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>5</v>
       </c>
@@ -11312,7 +11306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>5</v>
       </c>
@@ -11332,7 +11326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>5</v>
       </c>
@@ -11352,7 +11346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>5</v>
       </c>
@@ -11372,7 +11366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>5</v>
       </c>
@@ -11392,7 +11386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>5</v>
       </c>
@@ -11412,7 +11406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>5</v>
       </c>
@@ -11432,7 +11426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>5</v>
       </c>
@@ -11452,7 +11446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>5</v>
       </c>
@@ -11472,7 +11466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>5</v>
       </c>
@@ -11492,7 +11486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>5</v>
       </c>
@@ -11512,7 +11506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>5</v>
       </c>
@@ -11532,7 +11526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>5</v>
       </c>
@@ -11552,7 +11546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>5</v>
       </c>
@@ -11572,7 +11566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>5</v>
       </c>
@@ -11592,7 +11586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>5</v>
       </c>
@@ -11612,7 +11606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>5</v>
       </c>
@@ -11632,7 +11626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>5</v>
       </c>
@@ -11652,7 +11646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>5</v>
       </c>
@@ -11672,7 +11666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>5</v>
       </c>
@@ -11692,7 +11686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>5</v>
       </c>
@@ -11712,7 +11706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>5</v>
       </c>
@@ -11732,7 +11726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>5</v>
       </c>
@@ -11752,7 +11746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>5</v>
       </c>
@@ -11772,7 +11766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>5</v>
       </c>
@@ -11792,7 +11786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>5</v>
       </c>
@@ -11812,7 +11806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>5</v>
       </c>
@@ -11832,7 +11826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>5</v>
       </c>
@@ -11852,7 +11846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>5</v>
       </c>
@@ -11872,7 +11866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>5</v>
       </c>
@@ -11892,7 +11886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>5</v>
       </c>
@@ -11912,7 +11906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>5</v>
       </c>
@@ -11932,7 +11926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>5</v>
       </c>
@@ -11952,7 +11946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>5</v>
       </c>
@@ -11972,7 +11966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>5</v>
       </c>
@@ -11992,7 +11986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>5</v>
       </c>
@@ -12012,7 +12006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>5</v>
       </c>
@@ -12032,7 +12026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>5</v>
       </c>
@@ -12052,7 +12046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>5</v>
       </c>
@@ -12072,7 +12066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>5</v>
       </c>
@@ -12092,7 +12086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>5</v>
       </c>
@@ -12112,7 +12106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>5</v>
       </c>
@@ -12132,7 +12126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>5</v>
       </c>
@@ -12152,7 +12146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>5</v>
       </c>
@@ -12172,7 +12166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>5</v>
       </c>
@@ -12192,7 +12186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>5</v>
       </c>
@@ -12212,7 +12206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>5</v>
       </c>
@@ -12232,7 +12226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>5</v>
       </c>
@@ -12252,7 +12246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>5</v>
       </c>
@@ -12292,7 +12286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>5</v>
       </c>
@@ -12312,7 +12306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>5</v>
       </c>
@@ -12332,7 +12326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>5</v>
       </c>
@@ -12352,7 +12346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>5</v>
       </c>
@@ -12372,7 +12366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>5</v>
       </c>
@@ -12392,7 +12386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>5</v>
       </c>
@@ -12412,7 +12406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>5</v>
       </c>
@@ -12432,7 +12426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>5</v>
       </c>
@@ -12452,7 +12446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>5</v>
       </c>
@@ -12472,7 +12466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>5</v>
       </c>
@@ -12492,7 +12486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>5</v>
       </c>
@@ -12512,7 +12506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>5</v>
       </c>
@@ -12532,7 +12526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>5</v>
       </c>
@@ -12552,7 +12546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>5</v>
       </c>
@@ -12572,7 +12566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>5</v>
       </c>
@@ -12592,7 +12586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>5</v>
       </c>
@@ -12612,7 +12606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>5</v>
       </c>
@@ -12632,7 +12626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>5</v>
       </c>
@@ -12652,7 +12646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>5</v>
       </c>
@@ -12672,7 +12666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>5</v>
       </c>
@@ -12692,7 +12686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>5</v>
       </c>
@@ -12712,7 +12706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>5</v>
       </c>
@@ -12732,7 +12726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>5</v>
       </c>
@@ -12752,7 +12746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>5</v>
       </c>
@@ -12772,7 +12766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>5</v>
       </c>
@@ -12792,7 +12786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>5</v>
       </c>
@@ -12812,7 +12806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>5</v>
       </c>
@@ -12832,7 +12826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>5</v>
       </c>
@@ -12852,7 +12846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>5</v>
       </c>
@@ -12872,7 +12866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>5</v>
       </c>
@@ -12892,7 +12886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>5</v>
       </c>
@@ -12912,7 +12906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>5</v>
       </c>
@@ -12932,7 +12926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>5</v>
       </c>
@@ -12952,7 +12946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>5</v>
       </c>
@@ -12972,7 +12966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>5</v>
       </c>
@@ -12992,7 +12986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>5</v>
       </c>
@@ -13012,7 +13006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>5</v>
       </c>
@@ -13032,7 +13026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>5</v>
       </c>
@@ -13052,7 +13046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>5</v>
       </c>
@@ -13072,7 +13066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>5</v>
       </c>
@@ -13092,7 +13086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>5</v>
       </c>
@@ -13112,7 +13106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>5</v>
       </c>
@@ -13132,7 +13126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>5</v>
       </c>
@@ -13152,7 +13146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>5</v>
       </c>
@@ -13172,7 +13166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>5</v>
       </c>
@@ -13192,7 +13186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>5</v>
       </c>
@@ -13212,7 +13206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>5</v>
       </c>
@@ -13232,7 +13226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>5</v>
       </c>
@@ -13252,7 +13246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>5</v>
       </c>
@@ -13272,7 +13266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>5</v>
       </c>
@@ -13292,7 +13286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>5</v>
       </c>
@@ -13312,7 +13306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>5</v>
       </c>
@@ -13332,7 +13326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>5</v>
       </c>
@@ -13352,7 +13346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>5</v>
       </c>
@@ -13372,7 +13366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>5</v>
       </c>
@@ -13392,7 +13386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>5</v>
       </c>
@@ -13412,7 +13406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>5</v>
       </c>
@@ -13432,7 +13426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>5</v>
       </c>
@@ -13452,7 +13446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>5</v>
       </c>
@@ -13472,7 +13466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>5</v>
       </c>
@@ -13492,7 +13486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>5</v>
       </c>
@@ -13512,7 +13506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>5</v>
       </c>
@@ -13532,7 +13526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>5</v>
       </c>
@@ -13552,7 +13546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>5</v>
       </c>
@@ -13572,7 +13566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>5</v>
       </c>
@@ -13592,7 +13586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>5</v>
       </c>
@@ -13612,7 +13606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>5</v>
       </c>
@@ -13632,7 +13626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>5</v>
       </c>
@@ -13652,7 +13646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>5</v>
       </c>
@@ -13672,7 +13666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>5</v>
       </c>
@@ -13692,7 +13686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>5</v>
       </c>
@@ -13712,7 +13706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>5</v>
       </c>
@@ -13732,7 +13726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>5</v>
       </c>
@@ -13752,7 +13746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>5</v>
       </c>
@@ -13772,7 +13766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>5</v>
       </c>
@@ -13792,7 +13786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>5</v>
       </c>
@@ -13832,7 +13826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>5</v>
       </c>
@@ -13852,7 +13846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>5</v>
       </c>
@@ -13872,7 +13866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>5</v>
       </c>
@@ -13892,7 +13886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>5</v>
       </c>
@@ -13912,7 +13906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>5</v>
       </c>
@@ -13932,7 +13926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>5</v>
       </c>
@@ -13952,7 +13946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>5</v>
       </c>
@@ -13972,7 +13966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>5</v>
       </c>
@@ -13992,7 +13986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>5</v>
       </c>
@@ -14012,7 +14006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>5</v>
       </c>
@@ -14032,7 +14026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>5</v>
       </c>
@@ -14052,7 +14046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>5</v>
       </c>
@@ -14072,7 +14066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>5</v>
       </c>
@@ -14092,7 +14086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>5</v>
       </c>
@@ -14112,7 +14106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>5</v>
       </c>
@@ -14132,7 +14126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>5</v>
       </c>
@@ -14152,7 +14146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>5</v>
       </c>
@@ -14172,7 +14166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>5</v>
       </c>
@@ -14192,7 +14186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>5</v>
       </c>
@@ -14212,7 +14206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>5</v>
       </c>
@@ -14232,7 +14226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>5</v>
       </c>
@@ -14252,7 +14246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>5</v>
       </c>
@@ -14272,7 +14266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>5</v>
       </c>
@@ -14292,7 +14286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>5</v>
       </c>
@@ -14312,7 +14306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>5</v>
       </c>
@@ -14332,7 +14326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>5</v>
       </c>
@@ -14352,7 +14346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>5</v>
       </c>
@@ -14372,7 +14366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>5</v>
       </c>
@@ -14392,7 +14386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>5</v>
       </c>
@@ -14412,7 +14406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>5</v>
       </c>
@@ -14432,7 +14426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>5</v>
       </c>
@@ -14452,7 +14446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>5</v>
       </c>
@@ -14472,7 +14466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>5</v>
       </c>
@@ -14492,7 +14486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>5</v>
       </c>
@@ -14512,7 +14506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>5</v>
       </c>
@@ -14532,7 +14526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>5</v>
       </c>
@@ -14552,7 +14546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>5</v>
       </c>
@@ -14572,7 +14566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>5</v>
       </c>
@@ -14592,7 +14586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>5</v>
       </c>
@@ -14612,7 +14606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>5</v>
       </c>
@@ -14632,7 +14626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>5</v>
       </c>
@@ -14652,7 +14646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>5</v>
       </c>
@@ -14672,7 +14666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>5</v>
       </c>
@@ -14692,7 +14686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>5</v>
       </c>
@@ -14712,7 +14706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>5</v>
       </c>
@@ -14732,7 +14726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>5</v>
       </c>
@@ -14752,7 +14746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>5</v>
       </c>
@@ -14772,7 +14766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>5</v>
       </c>
@@ -14792,7 +14786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>5</v>
       </c>
@@ -14812,7 +14806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>5</v>
       </c>
@@ -14832,7 +14826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>5</v>
       </c>
@@ -14852,7 +14846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>5</v>
       </c>
@@ -14872,7 +14866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>5</v>
       </c>
@@ -14892,7 +14886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>5</v>
       </c>
@@ -14912,7 +14906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>5</v>
       </c>
@@ -14932,7 +14926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>5</v>
       </c>
@@ -14952,7 +14946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>5</v>
       </c>
@@ -14972,7 +14966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>5</v>
       </c>
@@ -14992,7 +14986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>5</v>
       </c>
@@ -15012,7 +15006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>5</v>
       </c>
@@ -15032,7 +15026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>5</v>
       </c>
@@ -15052,7 +15046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>5</v>
       </c>
@@ -15072,7 +15066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>5</v>
       </c>
@@ -15092,7 +15086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>5</v>
       </c>
@@ -15112,7 +15106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>5</v>
       </c>
@@ -15132,7 +15126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>5</v>
       </c>
@@ -15152,7 +15146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>5</v>
       </c>
@@ -15172,7 +15166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>5</v>
       </c>
@@ -15192,7 +15186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>5</v>
       </c>
@@ -15212,7 +15206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>5</v>
       </c>
@@ -15232,7 +15226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>5</v>
       </c>
@@ -15252,7 +15246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>5</v>
       </c>
@@ -15272,7 +15266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>5</v>
       </c>
@@ -15292,7 +15286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>5</v>
       </c>
@@ -15312,7 +15306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>5</v>
       </c>
@@ -15332,7 +15326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>5</v>
       </c>
@@ -15352,7 +15346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>5</v>
       </c>
@@ -15372,7 +15366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>5</v>
       </c>
@@ -15392,7 +15386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>5</v>
       </c>
@@ -15412,7 +15406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>5</v>
       </c>
@@ -15432,7 +15426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>5</v>
       </c>
@@ -15452,7 +15446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>5</v>
       </c>
@@ -15472,7 +15466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>5</v>
       </c>
@@ -15492,7 +15486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>5</v>
       </c>
@@ -15512,7 +15506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>5</v>
       </c>
@@ -15532,7 +15526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>5</v>
       </c>
@@ -15552,7 +15546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>5</v>
       </c>
@@ -15572,7 +15566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>5</v>
       </c>
@@ -15592,7 +15586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>5</v>
       </c>
@@ -15612,7 +15606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>5</v>
       </c>
@@ -15632,7 +15626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>5</v>
       </c>
@@ -15652,7 +15646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>5</v>
       </c>
@@ -15672,7 +15666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>5</v>
       </c>
@@ -15692,7 +15686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>5</v>
       </c>
@@ -15712,7 +15706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>5</v>
       </c>
@@ -15732,7 +15726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>5</v>
       </c>
@@ -15752,7 +15746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>5</v>
       </c>
@@ -15772,7 +15766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>5</v>
       </c>
@@ -15792,7 +15786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>5</v>
       </c>
@@ -15812,7 +15806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>5</v>
       </c>

--- a/databases/base_alunos_curso_marca_v3.xlsx
+++ b/databases/base_alunos_curso_marca_v3.xlsx
@@ -2,26 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeducacao-my.sharepoint.com/personal/kaique_yuto_animaeducacao_com_br/Documents/Projetos/Novo Modelo Acadêmico/databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4AED93-29F5-4123-ADA1-CC5F46A64747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9D4AED93-29F5-4123-ADA1-CC5F46A64747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{615A66C4-2709-4F25-833E-355F50BF3635}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9672" yWindow="6144" windowWidth="18432" windowHeight="9732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
-    <sheet name="Export" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Export" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Export!$A$1:$F$502</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Export!$A$1:$F$502</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="97">
   <si>
     <t>MARCA</t>
   </si>
@@ -341,6 +342,9 @@
   <si>
     <t>Count of NOME_CURSO</t>
   </si>
+  <si>
+    <t>Sum of Max of Contagem de CPF</t>
+  </si>
 </sst>
 </file>
 
@@ -4531,7 +4535,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0507B60-2638-4BD5-A83B-7BC18F0E113E}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0507B60-2638-4BD5-A83B-7BC18F0E113E}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -4864,6 +4868,340 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04379766-6F23-4405-9C31-549DF5FD5A52}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="72">
+        <item x="42"/>
+        <item x="54"/>
+        <item x="35"/>
+        <item x="57"/>
+        <item x="52"/>
+        <item x="62"/>
+        <item x="33"/>
+        <item x="53"/>
+        <item x="29"/>
+        <item x="56"/>
+        <item x="27"/>
+        <item x="60"/>
+        <item x="44"/>
+        <item x="11"/>
+        <item x="34"/>
+        <item x="68"/>
+        <item x="67"/>
+        <item x="63"/>
+        <item x="46"/>
+        <item x="69"/>
+        <item x="41"/>
+        <item x="48"/>
+        <item x="15"/>
+        <item x="55"/>
+        <item x="65"/>
+        <item x="5"/>
+        <item x="43"/>
+        <item x="51"/>
+        <item x="20"/>
+        <item x="49"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="40"/>
+        <item x="37"/>
+        <item x="70"/>
+        <item x="28"/>
+        <item x="12"/>
+        <item x="66"/>
+        <item x="23"/>
+        <item x="61"/>
+        <item x="38"/>
+        <item x="19"/>
+        <item x="47"/>
+        <item x="26"/>
+        <item x="21"/>
+        <item x="32"/>
+        <item x="10"/>
+        <item x="30"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="39"/>
+        <item x="6"/>
+        <item x="18"/>
+        <item x="25"/>
+        <item x="36"/>
+        <item x="58"/>
+        <item x="24"/>
+        <item x="59"/>
+        <item x="64"/>
+        <item x="45"/>
+        <item x="50"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="31"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="72">
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Max of Contagem de CPF" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{C176D672-59C0-450D-87A6-EE44CFA17BE1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
@@ -4882,8 +5220,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FF373C7-17FE-4614-8DB2-59FB74EB37F2}" name="Dúvidas_e_Testes" displayName="Dúvidas_e_Testes" ref="A1:F502" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F502" xr:uid="{6FF373C7-17FE-4614-8DB2-59FB74EB37F2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F500">
-    <sortCondition ref="B1:B502"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F502">
+    <sortCondition descending="1" ref="F1:F502"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{093AE8EE-0585-4409-B7F9-0F8F01411CD8}" uniqueName="1" name="MARCA" queryTableFieldId="1" dataDxfId="3"/>
@@ -5769,11 +6107,614 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22C8244-2A31-476C-8CDB-93A5AF20D1FA}">
+  <dimension ref="A3:B75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" activeCellId="2" sqref="A7 A9 A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="1">
+        <v>4038</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A8833F-F577-492B-940A-2EEB8F802A0F}">
   <dimension ref="A1:F502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E511" sqref="E511"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" activeCellId="1" sqref="C7 A2:F502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5851,19 +6792,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -5931,19 +6872,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -5951,13 +6892,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -5971,19 +6912,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6071,19 +7012,19 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6251,19 +7192,19 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -6271,13 +7212,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -6431,13 +7372,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -6451,13 +7392,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -6471,19 +7412,19 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -6531,19 +7472,19 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -6551,19 +7492,19 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -6631,13 +7572,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -6651,7 +7592,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
@@ -6671,13 +7612,13 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -6691,13 +7632,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -6711,13 +7652,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -6731,13 +7672,13 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -6751,13 +7692,13 @@
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -6771,7 +7712,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
         <v>21</v>
@@ -6783,7 +7724,7 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -6811,19 +7752,19 @@
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -6931,13 +7872,13 @@
         <v>5</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -6951,13 +7892,13 @@
         <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -6971,7 +7912,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
@@ -6991,13 +7932,13 @@
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -7011,13 +7952,13 @@
         <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -7031,13 +7972,13 @@
         <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -7051,19 +7992,19 @@
         <v>5</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
         <v>17</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -7091,10 +8032,10 @@
         <v>5</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>10</v>
@@ -7111,13 +8052,13 @@
         <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
         <v>20</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -7131,13 +8072,13 @@
         <v>5</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
         <v>20</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -7151,7 +8092,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
         <v>20</v>
@@ -7171,7 +8112,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
         <v>20</v>
@@ -7191,13 +8132,13 @@
         <v>5</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -7211,7 +8152,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
         <v>20</v>
@@ -7231,13 +8172,13 @@
         <v>5</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -7251,13 +8192,13 @@
         <v>5</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
         <v>21</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -7271,19 +8212,19 @@
         <v>5</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -7871,19 +8812,19 @@
         <v>5</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C105" t="s">
         <v>21</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -7897,13 +8838,13 @@
         <v>21</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -7911,13 +8852,13 @@
         <v>5</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C107" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -7931,13 +8872,13 @@
         <v>5</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -7951,7 +8892,7 @@
         <v>5</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C109" t="s">
         <v>20</v>
@@ -7971,7 +8912,7 @@
         <v>5</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C110" t="s">
         <v>20</v>
@@ -7991,13 +8932,13 @@
         <v>5</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C111" t="s">
         <v>20</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -8011,13 +8952,13 @@
         <v>5</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C112" t="s">
         <v>20</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -8031,7 +8972,7 @@
         <v>5</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C113" t="s">
         <v>20</v>
@@ -8051,13 +8992,13 @@
         <v>5</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C114" t="s">
         <v>20</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -8071,13 +9012,13 @@
         <v>5</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C115" t="s">
         <v>20</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -8091,13 +9032,13 @@
         <v>5</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C116" t="s">
         <v>20</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -8111,19 +9052,19 @@
         <v>5</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -8297,13 +9238,13 @@
         <v>21</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="F126">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -8531,19 +9472,19 @@
         <v>5</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C138" t="s">
         <v>21</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -8551,13 +9492,13 @@
         <v>5</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C139" t="s">
         <v>21</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -8571,13 +9512,13 @@
         <v>5</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -8591,13 +9532,13 @@
         <v>5</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C141" t="s">
         <v>20</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -8611,13 +9552,13 @@
         <v>5</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C142" t="s">
         <v>20</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -8631,13 +9572,13 @@
         <v>5</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C143" t="s">
         <v>20</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -8651,13 +9592,13 @@
         <v>5</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C144" t="s">
         <v>20</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -8671,7 +9612,7 @@
         <v>5</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C145" t="s">
         <v>20</v>
@@ -8691,13 +9632,13 @@
         <v>5</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C146" t="s">
         <v>20</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -8711,13 +9652,13 @@
         <v>5</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C147" t="s">
         <v>20</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -8731,7 +9672,7 @@
         <v>5</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C148" t="s">
         <v>20</v>
@@ -8751,13 +9692,13 @@
         <v>5</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
         <v>20</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -8771,13 +9712,13 @@
         <v>5</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C150" t="s">
         <v>20</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -8791,13 +9732,13 @@
         <v>5</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C151" t="s">
         <v>20</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -8811,7 +9752,7 @@
         <v>5</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C152" t="s">
         <v>20</v>
@@ -8831,13 +9772,13 @@
         <v>5</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C153" t="s">
         <v>20</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -8851,7 +9792,7 @@
         <v>5</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C154" t="s">
         <v>20</v>
@@ -8871,13 +9812,13 @@
         <v>5</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C155" t="s">
         <v>20</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -8891,19 +9832,19 @@
         <v>5</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C156" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E156">
         <v>1</v>
       </c>
       <c r="F156">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -8951,13 +9892,13 @@
         <v>5</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8971,13 +9912,13 @@
         <v>5</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8991,13 +9932,13 @@
         <v>5</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C161" t="s">
         <v>20</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -9011,13 +9952,13 @@
         <v>5</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C162" t="s">
         <v>20</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -9031,13 +9972,13 @@
         <v>5</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C163" t="s">
         <v>20</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -9051,7 +9992,7 @@
         <v>5</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C164" t="s">
         <v>20</v>
@@ -9071,13 +10012,13 @@
         <v>5</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C165" t="s">
         <v>20</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -9091,13 +10032,13 @@
         <v>5</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C166" t="s">
         <v>20</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -9111,7 +10052,7 @@
         <v>5</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C167" t="s">
         <v>20</v>
@@ -9131,7 +10072,7 @@
         <v>5</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C168" t="s">
         <v>20</v>
@@ -9151,13 +10092,13 @@
         <v>5</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C169" t="s">
         <v>20</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -9171,7 +10112,7 @@
         <v>5</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C170" t="s">
         <v>20</v>
@@ -9191,13 +10132,13 @@
         <v>5</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C171" t="s">
         <v>20</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -9211,13 +10152,13 @@
         <v>5</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C172" t="s">
         <v>20</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -9231,13 +10172,13 @@
         <v>5</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="C173" t="s">
         <v>20</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -9251,10 +10192,10 @@
         <v>5</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C174" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>10</v>
@@ -9271,19 +10212,19 @@
         <v>5</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C175" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
       <c r="F175">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -9297,7 +10238,7 @@
         <v>21</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -9311,19 +10252,19 @@
         <v>5</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C177" t="s">
         <v>21</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
       <c r="F177">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -9351,13 +10292,13 @@
         <v>5</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -9371,13 +10312,13 @@
         <v>5</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C180" t="s">
         <v>20</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -9391,13 +10332,13 @@
         <v>5</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C181" t="s">
         <v>20</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -9411,7 +10352,7 @@
         <v>5</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C182" t="s">
         <v>20</v>
@@ -9431,13 +10372,13 @@
         <v>5</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C183" t="s">
         <v>20</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -9451,13 +10392,13 @@
         <v>5</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="C184" t="s">
         <v>20</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -9471,13 +10412,13 @@
         <v>5</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C185" t="s">
         <v>20</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -9491,13 +10432,13 @@
         <v>5</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C186" t="s">
         <v>20</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9511,13 +10452,13 @@
         <v>5</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C187" t="s">
         <v>20</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9531,13 +10472,13 @@
         <v>5</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C188" t="s">
         <v>20</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -9551,13 +10492,13 @@
         <v>5</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C189" t="s">
         <v>20</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9571,13 +10512,13 @@
         <v>5</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C190" t="s">
         <v>20</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -9591,13 +10532,13 @@
         <v>5</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C191" t="s">
         <v>20</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -9611,13 +10552,13 @@
         <v>5</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C192" t="s">
         <v>20</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9631,13 +10572,13 @@
         <v>5</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C193" t="s">
         <v>20</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -9651,13 +10592,13 @@
         <v>5</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C194" t="s">
         <v>20</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -9671,13 +10612,13 @@
         <v>5</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C195" t="s">
         <v>20</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9691,13 +10632,13 @@
         <v>5</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C196" t="s">
         <v>20</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9711,13 +10652,13 @@
         <v>5</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -9731,19 +10672,19 @@
         <v>5</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C198" t="s">
         <v>21</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E198">
         <v>1</v>
       </c>
       <c r="F198">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -9751,13 +10692,13 @@
         <v>5</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -9771,7 +10712,7 @@
         <v>5</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C200" t="s">
         <v>20</v>
@@ -9791,13 +10732,13 @@
         <v>5</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C201" t="s">
         <v>20</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -9811,13 +10752,13 @@
         <v>5</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C202" t="s">
         <v>20</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -9831,13 +10772,13 @@
         <v>5</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C203" t="s">
         <v>20</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -9851,7 +10792,7 @@
         <v>5</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C204" t="s">
         <v>20</v>
@@ -9871,7 +10812,7 @@
         <v>5</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C205" t="s">
         <v>20</v>
@@ -9891,13 +10832,13 @@
         <v>5</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C206" t="s">
         <v>20</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -9911,7 +10852,7 @@
         <v>5</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C207" t="s">
         <v>20</v>
@@ -9931,13 +10872,13 @@
         <v>5</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C208" t="s">
         <v>20</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -9951,13 +10892,13 @@
         <v>5</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C209" t="s">
         <v>20</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -9971,13 +10912,13 @@
         <v>5</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C210" t="s">
         <v>20</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -9991,13 +10932,13 @@
         <v>5</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C211" t="s">
         <v>20</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -10011,7 +10952,7 @@
         <v>5</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C212" t="s">
         <v>20</v>
@@ -10031,13 +10972,13 @@
         <v>5</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C213" t="s">
         <v>20</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -10051,13 +10992,13 @@
         <v>5</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C214" t="s">
         <v>20</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -10071,13 +11012,13 @@
         <v>5</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C215" t="s">
         <v>20</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -10091,13 +11032,13 @@
         <v>5</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C216" t="s">
         <v>20</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -10111,13 +11052,13 @@
         <v>5</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C217" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -10131,7 +11072,7 @@
         <v>5</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C218" t="s">
         <v>21</v>
@@ -10151,13 +11092,13 @@
         <v>5</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C219" t="s">
         <v>21</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -10171,13 +11112,13 @@
         <v>5</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C220" t="s">
         <v>21</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -10191,19 +11132,19 @@
         <v>5</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C221" t="s">
         <v>21</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E221">
         <v>1</v>
       </c>
       <c r="F221">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -11611,13 +12552,13 @@
         <v>5</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C292" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -11631,13 +12572,13 @@
         <v>5</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C293" t="s">
         <v>20</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -11651,13 +12592,13 @@
         <v>5</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C294" t="s">
         <v>20</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -11671,13 +12612,13 @@
         <v>5</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C295" t="s">
         <v>20</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -11691,13 +12632,13 @@
         <v>5</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C296" t="s">
         <v>20</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -11711,13 +12652,13 @@
         <v>5</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C297" t="s">
         <v>20</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -11731,13 +12672,13 @@
         <v>5</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C298" t="s">
         <v>20</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -11751,13 +12692,13 @@
         <v>5</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C299" t="s">
         <v>20</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -11771,13 +12712,13 @@
         <v>5</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C300" t="s">
         <v>20</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -11791,13 +12732,13 @@
         <v>5</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C301" t="s">
         <v>20</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E301">
         <v>1</v>
@@ -11811,13 +12752,13 @@
         <v>5</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C302" t="s">
         <v>20</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -11831,13 +12772,13 @@
         <v>5</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C303" t="s">
         <v>20</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -11851,13 +12792,13 @@
         <v>5</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C304" t="s">
         <v>20</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E304">
         <v>1</v>
@@ -11871,13 +12812,13 @@
         <v>5</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C305" t="s">
         <v>20</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E305">
         <v>1</v>
@@ -11891,13 +12832,13 @@
         <v>5</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C306" t="s">
         <v>20</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -11911,13 +12852,13 @@
         <v>5</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C307" t="s">
         <v>20</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E307">
         <v>1</v>
@@ -11931,13 +12872,13 @@
         <v>5</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C308" t="s">
         <v>20</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -11951,13 +12892,13 @@
         <v>5</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C309" t="s">
         <v>20</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -11971,13 +12912,13 @@
         <v>5</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C310" t="s">
         <v>20</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E310">
         <v>1</v>
@@ -11991,13 +12932,13 @@
         <v>5</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C311" t="s">
         <v>20</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E311">
         <v>1</v>
@@ -12011,13 +12952,13 @@
         <v>5</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C312" t="s">
         <v>20</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E312">
         <v>1</v>
@@ -12031,13 +12972,13 @@
         <v>5</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C313" t="s">
         <v>20</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E313">
         <v>1</v>
@@ -12051,13 +12992,13 @@
         <v>5</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C314" t="s">
         <v>20</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -12071,13 +13012,13 @@
         <v>5</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C315" t="s">
         <v>20</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -12091,13 +13032,13 @@
         <v>5</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C316" t="s">
         <v>20</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -12111,13 +13052,13 @@
         <v>5</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C317" t="s">
         <v>20</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E317">
         <v>1</v>
@@ -12131,13 +13072,13 @@
         <v>5</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C318" t="s">
         <v>20</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E318">
         <v>1</v>
@@ -12151,7 +13092,7 @@
         <v>5</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C319" t="s">
         <v>20</v>
@@ -12171,13 +13112,13 @@
         <v>5</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C320" t="s">
         <v>20</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -12191,13 +13132,13 @@
         <v>5</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C321" t="s">
         <v>20</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -12211,13 +13152,13 @@
         <v>5</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C322" t="s">
         <v>20</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E322">
         <v>1</v>
@@ -12231,13 +13172,13 @@
         <v>5</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C323" t="s">
         <v>20</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E323">
         <v>1</v>
@@ -12251,13 +13192,13 @@
         <v>5</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C324" t="s">
         <v>20</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E324">
         <v>1</v>
@@ -12271,13 +13212,13 @@
         <v>5</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C325" t="s">
         <v>20</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E325">
         <v>1</v>
@@ -12291,13 +13232,13 @@
         <v>5</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C326" t="s">
         <v>20</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -12311,13 +13252,13 @@
         <v>5</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C327" t="s">
         <v>20</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -12331,13 +13272,13 @@
         <v>5</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C328" t="s">
         <v>20</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E328">
         <v>1</v>
@@ -12351,13 +13292,13 @@
         <v>5</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C329" t="s">
         <v>20</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E329">
         <v>1</v>
@@ -12371,13 +13312,13 @@
         <v>5</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C330" t="s">
         <v>20</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E330">
         <v>1</v>
@@ -12391,13 +13332,13 @@
         <v>5</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C331" t="s">
         <v>20</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E331">
         <v>1</v>
@@ -12411,13 +13352,13 @@
         <v>5</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C332" t="s">
         <v>20</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -12431,13 +13372,13 @@
         <v>5</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C333" t="s">
         <v>20</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E333">
         <v>1</v>
@@ -12451,13 +13392,13 @@
         <v>5</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C334" t="s">
         <v>20</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -12471,13 +13412,13 @@
         <v>5</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C335" t="s">
         <v>20</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E335">
         <v>1</v>
@@ -12491,13 +13432,13 @@
         <v>5</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C336" t="s">
         <v>20</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E336">
         <v>1</v>
@@ -12511,13 +13452,13 @@
         <v>5</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C337" t="s">
         <v>20</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E337">
         <v>1</v>
@@ -12531,13 +13472,13 @@
         <v>5</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C338" t="s">
         <v>20</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -12551,13 +13492,13 @@
         <v>5</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C339" t="s">
         <v>20</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -12571,13 +13512,13 @@
         <v>5</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C340" t="s">
         <v>20</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E340">
         <v>1</v>
@@ -12591,7 +13532,7 @@
         <v>5</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C341" t="s">
         <v>20</v>
@@ -12611,13 +13552,13 @@
         <v>5</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C342" t="s">
         <v>20</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E342">
         <v>1</v>
@@ -12631,13 +13572,13 @@
         <v>5</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C343" t="s">
         <v>20</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E343">
         <v>1</v>
@@ -12657,7 +13598,7 @@
         <v>20</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -12671,13 +13612,13 @@
         <v>5</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C345" t="s">
         <v>20</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E345">
         <v>1</v>
@@ -12691,7 +13632,7 @@
         <v>5</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C346" t="s">
         <v>20</v>
@@ -12717,7 +13658,7 @@
         <v>20</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E347">
         <v>1</v>
@@ -12731,7 +13672,7 @@
         <v>5</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C348" t="s">
         <v>20</v>
@@ -12751,13 +13692,13 @@
         <v>5</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C349" t="s">
         <v>20</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E349">
         <v>1</v>
@@ -12771,13 +13712,13 @@
         <v>5</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C350" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E350">
         <v>1</v>
@@ -12791,19 +13732,19 @@
         <v>5</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C351" t="s">
         <v>21</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E351">
         <v>1</v>
       </c>
       <c r="F351">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -12831,13 +13772,13 @@
         <v>5</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C353" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E353">
         <v>1</v>
@@ -12851,13 +13792,13 @@
         <v>5</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C354" t="s">
         <v>20</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E354">
         <v>1</v>
@@ -12871,13 +13812,13 @@
         <v>5</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C355" t="s">
         <v>20</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E355">
         <v>1</v>
@@ -12891,13 +13832,13 @@
         <v>5</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C356" t="s">
         <v>20</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E356">
         <v>1</v>
@@ -12911,13 +13852,13 @@
         <v>5</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C357" t="s">
         <v>20</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -12931,13 +13872,13 @@
         <v>5</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C358" t="s">
         <v>20</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E358">
         <v>1</v>
@@ -12951,13 +13892,13 @@
         <v>5</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C359" t="s">
         <v>20</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E359">
         <v>1</v>
@@ -12971,13 +13912,13 @@
         <v>5</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C360" t="s">
         <v>20</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E360">
         <v>1</v>
@@ -12991,7 +13932,7 @@
         <v>5</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C361" t="s">
         <v>20</v>
@@ -13011,13 +13952,13 @@
         <v>5</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C362" t="s">
         <v>20</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E362">
         <v>1</v>
@@ -13031,13 +13972,13 @@
         <v>5</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C363" t="s">
         <v>20</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E363">
         <v>1</v>
@@ -13051,13 +13992,13 @@
         <v>5</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C364" t="s">
         <v>20</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E364">
         <v>1</v>
@@ -13071,13 +14012,13 @@
         <v>5</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C365" t="s">
         <v>20</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E365">
         <v>1</v>
@@ -13091,13 +14032,13 @@
         <v>5</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C366" t="s">
         <v>20</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E366">
         <v>1</v>
@@ -13111,13 +14052,13 @@
         <v>5</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C367" t="s">
         <v>20</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E367">
         <v>1</v>
@@ -13131,13 +14072,13 @@
         <v>5</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C368" t="s">
         <v>20</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E368">
         <v>1</v>
@@ -13151,7 +14092,7 @@
         <v>5</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C369" t="s">
         <v>20</v>
@@ -13171,13 +14112,13 @@
         <v>5</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C370" t="s">
         <v>20</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E370">
         <v>1</v>
@@ -13191,7 +14132,7 @@
         <v>5</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C371" t="s">
         <v>20</v>
@@ -13211,13 +14152,13 @@
         <v>5</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C372" t="s">
         <v>20</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E372">
         <v>1</v>
@@ -13231,13 +14172,13 @@
         <v>5</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C373" t="s">
         <v>20</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E373">
         <v>1</v>
@@ -13251,13 +14192,13 @@
         <v>5</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C374" t="s">
         <v>20</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E374">
         <v>1</v>
@@ -13271,13 +14212,13 @@
         <v>5</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C375" t="s">
         <v>20</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E375">
         <v>1</v>
@@ -13291,13 +14232,13 @@
         <v>5</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C376" t="s">
         <v>20</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E376">
         <v>1</v>
@@ -13311,13 +14252,13 @@
         <v>5</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C377" t="s">
         <v>20</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E377">
         <v>1</v>
@@ -13331,13 +14272,13 @@
         <v>5</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C378" t="s">
         <v>20</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E378">
         <v>1</v>
@@ -13351,13 +14292,13 @@
         <v>5</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C379" t="s">
         <v>20</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E379">
         <v>1</v>
@@ -13371,13 +14312,13 @@
         <v>5</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C380" t="s">
         <v>20</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E380">
         <v>1</v>
@@ -13397,7 +14338,7 @@
         <v>20</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E381">
         <v>1</v>
@@ -13411,13 +14352,13 @@
         <v>5</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C382" t="s">
         <v>20</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E382">
         <v>1</v>
@@ -13431,13 +14372,13 @@
         <v>5</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C383" t="s">
         <v>20</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E383">
         <v>1</v>
@@ -13451,13 +14392,13 @@
         <v>5</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C384" t="s">
         <v>20</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E384">
         <v>1</v>
@@ -13471,7 +14412,7 @@
         <v>5</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C385" t="s">
         <v>20</v>
@@ -13491,13 +14432,13 @@
         <v>5</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C386" t="s">
         <v>20</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E386">
         <v>1</v>
@@ -13511,13 +14452,13 @@
         <v>5</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C387" t="s">
         <v>20</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E387">
         <v>1</v>
@@ -13531,13 +14472,13 @@
         <v>5</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C388" t="s">
         <v>20</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E388">
         <v>1</v>
@@ -13551,7 +14492,7 @@
         <v>5</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C389" t="s">
         <v>20</v>
@@ -13571,13 +14512,13 @@
         <v>5</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C390" t="s">
         <v>20</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E390">
         <v>1</v>
@@ -13591,13 +14532,13 @@
         <v>5</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C391" t="s">
         <v>20</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E391">
         <v>1</v>
@@ -13611,7 +14552,7 @@
         <v>5</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C392" t="s">
         <v>20</v>
@@ -13631,13 +14572,13 @@
         <v>5</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C393" t="s">
         <v>20</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E393">
         <v>1</v>
@@ -13651,13 +14592,13 @@
         <v>5</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C394" t="s">
         <v>20</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E394">
         <v>1</v>
@@ -13671,13 +14612,13 @@
         <v>5</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C395" t="s">
         <v>20</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E395">
         <v>1</v>
@@ -13691,13 +14632,13 @@
         <v>5</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C396" t="s">
         <v>20</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E396">
         <v>1</v>
@@ -13711,7 +14652,7 @@
         <v>5</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C397" t="s">
         <v>20</v>
@@ -13731,13 +14672,13 @@
         <v>5</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C398" t="s">
         <v>20</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E398">
         <v>1</v>
@@ -13751,7 +14692,7 @@
         <v>5</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C399" t="s">
         <v>20</v>
@@ -13771,13 +14712,13 @@
         <v>5</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="C400" t="s">
         <v>20</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E400">
         <v>1</v>
@@ -13791,13 +14732,13 @@
         <v>5</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C401" t="s">
         <v>20</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E401">
         <v>1</v>
@@ -13811,7 +14752,7 @@
         <v>5</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C402" t="s">
         <v>20</v>
@@ -13831,13 +14772,13 @@
         <v>5</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C403" t="s">
         <v>20</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E403">
         <v>1</v>
@@ -13851,13 +14792,13 @@
         <v>5</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C404" t="s">
         <v>20</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E404">
         <v>1</v>
@@ -13871,13 +14812,13 @@
         <v>5</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C405" t="s">
         <v>20</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E405">
         <v>1</v>
@@ -13891,13 +14832,13 @@
         <v>5</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C406" t="s">
         <v>20</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E406">
         <v>1</v>
@@ -13911,7 +14852,7 @@
         <v>5</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C407" t="s">
         <v>20</v>
@@ -13931,13 +14872,13 @@
         <v>5</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C408" t="s">
         <v>20</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E408">
         <v>1</v>
@@ -13951,13 +14892,13 @@
         <v>5</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C409" t="s">
         <v>20</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E409">
         <v>1</v>
@@ -13971,13 +14912,13 @@
         <v>5</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C410" t="s">
         <v>20</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E410">
         <v>1</v>
@@ -13991,13 +14932,13 @@
         <v>5</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C411" t="s">
         <v>20</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E411">
         <v>1</v>
@@ -14011,13 +14952,13 @@
         <v>5</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C412" t="s">
         <v>20</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E412">
         <v>1</v>
@@ -14031,7 +14972,7 @@
         <v>5</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C413" t="s">
         <v>20</v>
@@ -14051,13 +14992,13 @@
         <v>5</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C414" t="s">
         <v>20</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E414">
         <v>1</v>
@@ -14071,13 +15012,13 @@
         <v>5</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C415" t="s">
         <v>20</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E415">
         <v>1</v>
@@ -14091,7 +15032,7 @@
         <v>5</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C416" t="s">
         <v>20</v>
@@ -14111,13 +15052,13 @@
         <v>5</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C417" t="s">
         <v>20</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E417">
         <v>1</v>
@@ -14131,13 +15072,13 @@
         <v>5</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C418" t="s">
         <v>20</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E418">
         <v>1</v>
@@ -14151,13 +15092,13 @@
         <v>5</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C419" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E419">
         <v>1</v>
@@ -14171,19 +15112,19 @@
         <v>5</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C420" t="s">
         <v>21</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E420">
         <v>1</v>
       </c>
       <c r="F420">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">

--- a/databases/base_alunos_curso_marca_v3.xlsx
+++ b/databases/base_alunos_curso_marca_v3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeducacao-my.sharepoint.com/personal/kaique_yuto_animaeducacao_com_br/Documents/Projetos/Novo Modelo Acadêmico/databases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9D4AED93-29F5-4123-ADA1-CC5F46A64747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{615A66C4-2709-4F25-833E-355F50BF3635}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119030F5-8155-4AF0-881E-3A3245E3081D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9672" yWindow="6144" windowWidth="18432" windowHeight="9732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4535,7 +4535,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0507B60-2638-4BD5-A83B-7BC18F0E113E}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0507B60-2638-4BD5-A83B-7BC18F0E113E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -4869,7 +4869,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04379766-6F23-4405-9C31-549DF5FD5A52}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04379766-6F23-4405-9C31-549DF5FD5A52}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -5219,7 +5219,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FF373C7-17FE-4614-8DB2-59FB74EB37F2}" name="Dúvidas_e_Testes" displayName="Dúvidas_e_Testes" ref="A1:F502" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F502" xr:uid="{6FF373C7-17FE-4614-8DB2-59FB74EB37F2}"/>
+  <autoFilter ref="A1:F502" xr:uid="{6FF373C7-17FE-4614-8DB2-59FB74EB37F2}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="UNIDADE ACADÊMICA MOOCA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F502">
     <sortCondition descending="1" ref="F1:F502"/>
   </sortState>
@@ -6110,8 +6116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22C8244-2A31-476C-8CDB-93A5AF20D1FA}">
   <dimension ref="A3:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" activeCellId="2" sqref="A7 A9 A11"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6713,8 +6719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A8833F-F577-492B-940A-2EEB8F802A0F}">
   <dimension ref="A1:F502"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" activeCellId="1" sqref="C7 A2:F502"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6747,7 +6753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -6787,7 +6793,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6807,7 +6813,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -6887,7 +6893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -6907,7 +6913,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -6927,7 +6933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -6947,7 +6953,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -6967,7 +6973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -7007,7 +7013,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -7027,7 +7033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -7047,7 +7053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -7067,7 +7073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -7107,7 +7113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -7127,7 +7133,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -7167,7 +7173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -7187,7 +7193,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -7207,7 +7213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -7247,7 +7253,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -7267,7 +7273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -7287,7 +7293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -7307,7 +7313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -7327,7 +7333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -7347,7 +7353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -7367,7 +7373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -7387,7 +7393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -7407,7 +7413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -7427,7 +7433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -7447,7 +7453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -7467,7 +7473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -7487,7 +7493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -7507,7 +7513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -7527,7 +7533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -7547,7 +7553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -7567,7 +7573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -7587,7 +7593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -7607,7 +7613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -7627,7 +7633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -7647,7 +7653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -7667,7 +7673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -7687,7 +7693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -7707,7 +7713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -7727,7 +7733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -7747,7 +7753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -7767,7 +7773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -7787,7 +7793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -7807,7 +7813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -7827,7 +7833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -7867,7 +7873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -7887,7 +7893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -7907,7 +7913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -7927,7 +7933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -7947,7 +7953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -7967,7 +7973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -7987,7 +7993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -8007,7 +8013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -8027,7 +8033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -8047,7 +8053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -8067,7 +8073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -8087,7 +8093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -8107,7 +8113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -8127,7 +8133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -8147,7 +8153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -8167,7 +8173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -8187,7 +8193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -8207,7 +8213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -8227,7 +8233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -8247,7 +8253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -8267,7 +8273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
@@ -8287,7 +8293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
@@ -8307,7 +8313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
@@ -8327,7 +8333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
@@ -8347,7 +8353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
@@ -8367,7 +8373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
@@ -8387,7 +8393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>5</v>
       </c>
@@ -8407,7 +8413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>5</v>
       </c>
@@ -8427,7 +8433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -8447,7 +8453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
@@ -8487,7 +8493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
@@ -8507,7 +8513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
@@ -8527,7 +8533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
@@ -8547,7 +8553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
@@ -8567,7 +8573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>5</v>
       </c>
@@ -8587,7 +8593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
@@ -8607,7 +8613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
@@ -8647,7 +8653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
@@ -8667,7 +8673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
@@ -8687,7 +8693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
@@ -8707,7 +8713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>5</v>
       </c>
@@ -8727,7 +8733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>5</v>
       </c>
@@ -8747,7 +8753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
@@ -8767,7 +8773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>5</v>
       </c>
@@ -8787,7 +8793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>5</v>
       </c>
@@ -8807,7 +8813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
@@ -8827,7 +8833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>5</v>
       </c>
@@ -8847,7 +8853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>5</v>
       </c>
@@ -8867,7 +8873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>5</v>
       </c>
@@ -8887,7 +8893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>5</v>
       </c>
@@ -8907,7 +8913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>5</v>
       </c>
@@ -8927,7 +8933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>5</v>
       </c>
@@ -8947,7 +8953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>5</v>
       </c>
@@ -8967,7 +8973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
@@ -8987,7 +8993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>5</v>
       </c>
@@ -9007,7 +9013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
@@ -9027,7 +9033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>5</v>
       </c>
@@ -9047,7 +9053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>5</v>
       </c>
@@ -9067,7 +9073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>5</v>
       </c>
@@ -9087,7 +9093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
@@ -9107,7 +9113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>5</v>
       </c>
@@ -9127,7 +9133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>5</v>
       </c>
@@ -9147,7 +9153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>5</v>
       </c>
@@ -9167,7 +9173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>5</v>
       </c>
@@ -9187,7 +9193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>5</v>
       </c>
@@ -9207,7 +9213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>5</v>
       </c>
@@ -9227,7 +9233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>5</v>
       </c>
@@ -9247,7 +9253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>5</v>
       </c>
@@ -9267,7 +9273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>5</v>
       </c>
@@ -9287,7 +9293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>5</v>
       </c>
@@ -9307,7 +9313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>5</v>
       </c>
@@ -9327,7 +9333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>5</v>
       </c>
@@ -9347,7 +9353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>5</v>
       </c>
@@ -9367,7 +9373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>5</v>
       </c>
@@ -9387,7 +9393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>5</v>
       </c>
@@ -9407,7 +9413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>5</v>
       </c>
@@ -9427,7 +9433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>5</v>
       </c>
@@ -9447,7 +9453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>5</v>
       </c>
@@ -9467,7 +9473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>5</v>
       </c>
@@ -9487,7 +9493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -9507,7 +9513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>5</v>
       </c>
@@ -9527,7 +9533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>5</v>
       </c>
@@ -9547,7 +9553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>5</v>
       </c>
@@ -9567,7 +9573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>5</v>
       </c>
@@ -9587,7 +9593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>5</v>
       </c>
@@ -9607,7 +9613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>5</v>
       </c>
@@ -9627,7 +9633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>5</v>
       </c>
@@ -9647,7 +9653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>5</v>
       </c>
@@ -9667,7 +9673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>5</v>
       </c>
@@ -9687,7 +9693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>5</v>
       </c>
@@ -9707,7 +9713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>5</v>
       </c>
@@ -9727,7 +9733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>5</v>
       </c>
@@ -9747,7 +9753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>5</v>
       </c>
@@ -9767,7 +9773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>5</v>
       </c>
@@ -9787,7 +9793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>5</v>
       </c>
@@ -9807,7 +9813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>5</v>
       </c>
@@ -9827,7 +9833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>5</v>
       </c>
@@ -9847,7 +9853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>5</v>
       </c>
@@ -9867,7 +9873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>5</v>
       </c>
@@ -9887,7 +9893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>5</v>
       </c>
@@ -9907,7 +9913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>5</v>
       </c>
@@ -9927,7 +9933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>5</v>
       </c>
@@ -9947,7 +9953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>5</v>
       </c>
@@ -9967,7 +9973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>5</v>
       </c>
@@ -9987,7 +9993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>5</v>
       </c>
@@ -10007,7 +10013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>5</v>
       </c>
@@ -10027,7 +10033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>5</v>
       </c>
@@ -10047,7 +10053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>5</v>
       </c>
@@ -10067,7 +10073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>5</v>
       </c>
@@ -10087,7 +10093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>5</v>
       </c>
@@ -10107,7 +10113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>5</v>
       </c>
@@ -10127,7 +10133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>5</v>
       </c>
@@ -10147,7 +10153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -10167,7 +10173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>5</v>
       </c>
@@ -10187,7 +10193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>5</v>
       </c>
@@ -10207,7 +10213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>5</v>
       </c>
@@ -10227,7 +10233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>5</v>
       </c>
@@ -10247,7 +10253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>5</v>
       </c>
@@ -10267,7 +10273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>5</v>
       </c>
@@ -10287,7 +10293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>5</v>
       </c>
@@ -10307,7 +10313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>5</v>
       </c>
@@ -10327,7 +10333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>5</v>
       </c>
@@ -10347,7 +10353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>5</v>
       </c>
@@ -10367,7 +10373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>5</v>
       </c>
@@ -10387,7 +10393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>5</v>
       </c>
@@ -10407,7 +10413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>5</v>
       </c>
@@ -10427,7 +10433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
@@ -10447,7 +10453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>5</v>
       </c>
@@ -10467,7 +10473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>5</v>
       </c>
@@ -10487,7 +10493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>5</v>
       </c>
@@ -10507,7 +10513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>5</v>
       </c>
@@ -10527,7 +10533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>5</v>
       </c>
@@ -10547,7 +10553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>5</v>
       </c>
@@ -10567,7 +10573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>5</v>
       </c>
@@ -10587,7 +10593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>5</v>
       </c>
@@ -10607,7 +10613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>5</v>
       </c>
@@ -10627,7 +10633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>5</v>
       </c>
@@ -10647,7 +10653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>5</v>
       </c>
@@ -10667,7 +10673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>5</v>
       </c>
@@ -10687,7 +10693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>5</v>
       </c>
@@ -10707,7 +10713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>5</v>
       </c>
@@ -10727,7 +10733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>5</v>
       </c>
@@ -10747,7 +10753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>5</v>
       </c>
@@ -10767,7 +10773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>5</v>
       </c>
@@ -10787,7 +10793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>5</v>
       </c>
@@ -10807,7 +10813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>5</v>
       </c>
@@ -10827,7 +10833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>5</v>
       </c>
@@ -10847,7 +10853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>5</v>
       </c>
@@ -10867,7 +10873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>5</v>
       </c>
@@ -10887,7 +10893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>5</v>
       </c>
@@ -10907,7 +10913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>5</v>
       </c>
@@ -10927,7 +10933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>5</v>
       </c>
@@ -10947,7 +10953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>5</v>
       </c>
@@ -10967,7 +10973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>5</v>
       </c>
@@ -10987,7 +10993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>5</v>
       </c>
@@ -11007,7 +11013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>5</v>
       </c>
@@ -11027,7 +11033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>5</v>
       </c>
@@ -11047,7 +11053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>5</v>
       </c>
@@ -11067,7 +11073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>5</v>
       </c>
@@ -11087,7 +11093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>5</v>
       </c>
@@ -11107,7 +11113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>5</v>
       </c>
@@ -11127,7 +11133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>5</v>
       </c>
@@ -11147,7 +11153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>5</v>
       </c>
@@ -11167,7 +11173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>5</v>
       </c>
@@ -11187,7 +11193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>5</v>
       </c>
@@ -11207,7 +11213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>5</v>
       </c>
@@ -11227,7 +11233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>5</v>
       </c>
@@ -11247,7 +11253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>5</v>
       </c>
@@ -11267,7 +11273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>5</v>
       </c>
@@ -11287,7 +11293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>5</v>
       </c>
@@ -11307,7 +11313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>5</v>
       </c>
@@ -11327,7 +11333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>5</v>
       </c>
@@ -11347,7 +11353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>5</v>
       </c>
@@ -11367,7 +11373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>5</v>
       </c>
@@ -11387,7 +11393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>5</v>
       </c>
@@ -11407,7 +11413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>5</v>
       </c>
@@ -11427,7 +11433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>5</v>
       </c>
@@ -11447,7 +11453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>5</v>
       </c>
@@ -11467,7 +11473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>5</v>
       </c>
@@ -11487,7 +11493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>5</v>
       </c>
@@ -11507,7 +11513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>5</v>
       </c>
@@ -11527,7 +11533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>5</v>
       </c>
@@ -11547,7 +11553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>5</v>
       </c>
@@ -11567,7 +11573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>5</v>
       </c>
@@ -11587,7 +11593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>5</v>
       </c>
@@ -11607,7 +11613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>5</v>
       </c>
@@ -11627,7 +11633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>5</v>
       </c>
@@ -11647,7 +11653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>5</v>
       </c>
@@ -11667,7 +11673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>5</v>
       </c>
@@ -11687,7 +11693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>5</v>
       </c>
@@ -11707,7 +11713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>5</v>
       </c>
@@ -11727,7 +11733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>5</v>
       </c>
@@ -11747,7 +11753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>5</v>
       </c>
@@ -11767,7 +11773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>5</v>
       </c>
@@ -11787,7 +11793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>5</v>
       </c>
@@ -11807,7 +11813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>5</v>
       </c>
@@ -11827,7 +11833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>5</v>
       </c>
@@ -11847,7 +11853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>5</v>
       </c>
@@ -11867,7 +11873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>5</v>
       </c>
@@ -11887,7 +11893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>5</v>
       </c>
@@ -11907,7 +11913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>5</v>
       </c>
@@ -11927,7 +11933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>5</v>
       </c>
@@ -11947,7 +11953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>5</v>
       </c>
@@ -11967,7 +11973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>5</v>
       </c>
@@ -11987,7 +11993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>5</v>
       </c>
@@ -12007,7 +12013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>5</v>
       </c>
@@ -12027,7 +12033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>5</v>
       </c>
@@ -12047,7 +12053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>5</v>
       </c>
@@ -12067,7 +12073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>5</v>
       </c>
@@ -12087,7 +12093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>5</v>
       </c>
@@ -12107,7 +12113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>5</v>
       </c>
@@ -12127,7 +12133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>5</v>
       </c>
@@ -12147,7 +12153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>5</v>
       </c>
@@ -12167,7 +12173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>5</v>
       </c>
@@ -12187,7 +12193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>5</v>
       </c>
@@ -12207,7 +12213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>5</v>
       </c>
@@ -12227,7 +12233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>5</v>
       </c>
@@ -12247,7 +12253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>5</v>
       </c>
@@ -12267,7 +12273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>5</v>
       </c>
@@ -12287,7 +12293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>5</v>
       </c>
@@ -12307,7 +12313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>5</v>
       </c>
@@ -12327,7 +12333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>5</v>
       </c>
@@ -12347,7 +12353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>5</v>
       </c>
@@ -12367,7 +12373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>5</v>
       </c>
@@ -12387,7 +12393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>5</v>
       </c>
@@ -12407,7 +12413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>5</v>
       </c>
@@ -12427,7 +12433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>5</v>
       </c>
@@ -12447,7 +12453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>5</v>
       </c>
@@ -12467,7 +12473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>5</v>
       </c>
@@ -12487,7 +12493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>5</v>
       </c>
@@ -12507,7 +12513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>5</v>
       </c>
@@ -12527,7 +12533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>5</v>
       </c>
@@ -12547,7 +12553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>5</v>
       </c>
@@ -12567,7 +12573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>5</v>
       </c>
@@ -12587,7 +12593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>5</v>
       </c>
@@ -12607,7 +12613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>5</v>
       </c>
@@ -12627,7 +12633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>5</v>
       </c>
@@ -12647,7 +12653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>5</v>
       </c>
@@ -12667,7 +12673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>5</v>
       </c>
@@ -12687,7 +12693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>5</v>
       </c>
@@ -12707,7 +12713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>5</v>
       </c>
@@ -12727,7 +12733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>5</v>
       </c>
@@ -12747,7 +12753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>5</v>
       </c>
@@ -12767,7 +12773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>5</v>
       </c>
@@ -12787,7 +12793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>5</v>
       </c>
@@ -12807,7 +12813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>5</v>
       </c>
@@ -12827,7 +12833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>5</v>
       </c>
@@ -12847,7 +12853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>5</v>
       </c>
@@ -12867,7 +12873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>5</v>
       </c>
@@ -12887,7 +12893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>5</v>
       </c>
@@ -12907,7 +12913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>5</v>
       </c>
@@ -12927,7 +12933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>5</v>
       </c>
@@ -12947,7 +12953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>5</v>
       </c>
@@ -12967,7 +12973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>5</v>
       </c>
@@ -12987,7 +12993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>5</v>
       </c>
@@ -13007,7 +13013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>5</v>
       </c>
@@ -13027,7 +13033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>5</v>
       </c>
@@ -13047,7 +13053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>5</v>
       </c>
@@ -13067,7 +13073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>5</v>
       </c>
@@ -13087,7 +13093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>5</v>
       </c>
@@ -13107,7 +13113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>5</v>
       </c>
@@ -13127,7 +13133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>5</v>
       </c>
@@ -13147,7 +13153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>5</v>
       </c>
@@ -13167,7 +13173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>5</v>
       </c>
@@ -13187,7 +13193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>5</v>
       </c>
@@ -13207,7 +13213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>5</v>
       </c>
@@ -13227,7 +13233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>5</v>
       </c>
@@ -13247,7 +13253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>5</v>
       </c>
@@ -13267,7 +13273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>5</v>
       </c>
@@ -13287,7 +13293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>5</v>
       </c>
@@ -13307,7 +13313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>5</v>
       </c>
@@ -13327,7 +13333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>5</v>
       </c>
@@ -13347,7 +13353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>5</v>
       </c>
@@ -13367,7 +13373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>5</v>
       </c>
@@ -13387,7 +13393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>5</v>
       </c>
@@ -13407,7 +13413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>5</v>
       </c>
@@ -13427,7 +13433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>5</v>
       </c>
@@ -13447,7 +13453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>5</v>
       </c>
@@ -13467,7 +13473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>5</v>
       </c>
@@ -13487,7 +13493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>5</v>
       </c>
@@ -13507,7 +13513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>5</v>
       </c>
@@ -13527,7 +13533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>5</v>
       </c>
@@ -13547,7 +13553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>5</v>
       </c>
@@ -13567,7 +13573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>5</v>
       </c>
@@ -13587,7 +13593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>5</v>
       </c>
@@ -13607,7 +13613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>5</v>
       </c>
@@ -13627,7 +13633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>5</v>
       </c>
@@ -13647,7 +13653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>5</v>
       </c>
@@ -13667,7 +13673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>5</v>
       </c>
@@ -13687,7 +13693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>5</v>
       </c>
@@ -13707,7 +13713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>5</v>
       </c>
@@ -13727,7 +13733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>5</v>
       </c>
@@ -13747,7 +13753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>5</v>
       </c>
@@ -13767,7 +13773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>5</v>
       </c>
@@ -13787,7 +13793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>5</v>
       </c>
@@ -13807,7 +13813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>5</v>
       </c>
@@ -13827,7 +13833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>5</v>
       </c>
@@ -13847,7 +13853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>5</v>
       </c>
@@ -13867,7 +13873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>5</v>
       </c>
@@ -13887,7 +13893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>5</v>
       </c>
@@ -13907,7 +13913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>5</v>
       </c>
@@ -13927,7 +13933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>5</v>
       </c>
@@ -13947,7 +13953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>5</v>
       </c>
@@ -13967,7 +13973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>5</v>
       </c>
@@ -13987,7 +13993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>5</v>
       </c>
@@ -14007,7 +14013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>5</v>
       </c>
@@ -14027,7 +14033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>5</v>
       </c>
@@ -14047,7 +14053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>5</v>
       </c>
@@ -14067,7 +14073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>5</v>
       </c>
@@ -14087,7 +14093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>5</v>
       </c>
@@ -14107,7 +14113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>5</v>
       </c>
@@ -14127,7 +14133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>5</v>
       </c>
@@ -14147,7 +14153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>5</v>
       </c>
@@ -14167,7 +14173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>5</v>
       </c>
@@ -14187,7 +14193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>5</v>
       </c>
@@ -14207,7 +14213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>5</v>
       </c>
@@ -14227,7 +14233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>5</v>
       </c>
@@ -14247,7 +14253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>5</v>
       </c>
@@ -14267,7 +14273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>5</v>
       </c>
@@ -14287,7 +14293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>5</v>
       </c>
@@ -14307,7 +14313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>5</v>
       </c>
@@ -14327,7 +14333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>5</v>
       </c>
@@ -14347,7 +14353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>5</v>
       </c>
@@ -14367,7 +14373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>5</v>
       </c>
@@ -14387,7 +14393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>5</v>
       </c>
@@ -14407,7 +14413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>5</v>
       </c>
@@ -14427,7 +14433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>5</v>
       </c>
@@ -14447,7 +14453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>5</v>
       </c>
@@ -14467,7 +14473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>5</v>
       </c>
@@ -14487,7 +14493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>5</v>
       </c>
@@ -14507,7 +14513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>5</v>
       </c>
@@ -14527,7 +14533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>5</v>
       </c>
@@ -14547,7 +14553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>5</v>
       </c>
@@ -14567,7 +14573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>5</v>
       </c>
@@ -14587,7 +14593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>5</v>
       </c>
@@ -14607,7 +14613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>5</v>
       </c>
@@ -14627,7 +14633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>5</v>
       </c>
@@ -14647,7 +14653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>5</v>
       </c>
@@ -14667,7 +14673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>5</v>
       </c>
@@ -14687,7 +14693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>5</v>
       </c>
@@ -14707,7 +14713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>5</v>
       </c>
@@ -14727,7 +14733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>5</v>
       </c>
@@ -14747,7 +14753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>5</v>
       </c>
@@ -14767,7 +14773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>5</v>
       </c>
@@ -14787,7 +14793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>5</v>
       </c>
@@ -14807,7 +14813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>5</v>
       </c>
@@ -14827,7 +14833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>5</v>
       </c>
@@ -14847,7 +14853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>5</v>
       </c>
@@ -14867,7 +14873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>5</v>
       </c>
@@ -14887,7 +14893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>5</v>
       </c>
@@ -14907,7 +14913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>5</v>
       </c>
@@ -14927,7 +14933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>5</v>
       </c>
@@ -14947,7 +14953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>5</v>
       </c>
@@ -14967,7 +14973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>5</v>
       </c>
@@ -14987,7 +14993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>5</v>
       </c>
@@ -15007,7 +15013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>5</v>
       </c>
@@ -15027,7 +15033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>5</v>
       </c>
@@ -15047,7 +15053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>5</v>
       </c>
@@ -15067,7 +15073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>5</v>
       </c>
@@ -15087,7 +15093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>5</v>
       </c>
@@ -15107,7 +15113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>5</v>
       </c>
@@ -15127,7 +15133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>5</v>
       </c>
@@ -15147,7 +15153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>5</v>
       </c>
@@ -15167,7 +15173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>5</v>
       </c>
@@ -15187,7 +15193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>5</v>
       </c>
@@ -15207,7 +15213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>5</v>
       </c>
@@ -15227,7 +15233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>5</v>
       </c>
@@ -15247,7 +15253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>5</v>
       </c>
@@ -15267,7 +15273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>5</v>
       </c>
@@ -15287,7 +15293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>5</v>
       </c>
@@ -15307,7 +15313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>5</v>
       </c>
@@ -15327,7 +15333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>5</v>
       </c>
@@ -15347,7 +15353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>5</v>
       </c>
@@ -15367,7 +15373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>5</v>
       </c>
@@ -15387,7 +15393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>5</v>
       </c>
@@ -15407,7 +15413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>5</v>
       </c>
@@ -15427,7 +15433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>5</v>
       </c>
@@ -15447,7 +15453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>5</v>
       </c>
@@ -15467,7 +15473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>5</v>
       </c>
@@ -15487,7 +15493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>5</v>
       </c>
@@ -15507,7 +15513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>5</v>
       </c>
@@ -15527,7 +15533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>5</v>
       </c>
@@ -15547,7 +15553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>5</v>
       </c>
@@ -15567,7 +15573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>5</v>
       </c>
@@ -15587,7 +15593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>5</v>
       </c>
@@ -15607,7 +15613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>5</v>
       </c>
@@ -15627,7 +15633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>5</v>
       </c>
@@ -15647,7 +15653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>5</v>
       </c>
@@ -15667,7 +15673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>5</v>
       </c>
@@ -15687,7 +15693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>5</v>
       </c>
@@ -15707,7 +15713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>5</v>
       </c>
@@ -15727,7 +15733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>5</v>
       </c>
@@ -15747,7 +15753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>5</v>
       </c>
@@ -15767,7 +15773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>5</v>
       </c>
@@ -15787,7 +15793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>5</v>
       </c>
@@ -15807,7 +15813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>5</v>
       </c>
@@ -15827,7 +15833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>5</v>
       </c>
@@ -15847,7 +15853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>5</v>
       </c>
@@ -15867,7 +15873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>5</v>
       </c>
@@ -15887,7 +15893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>5</v>
       </c>
@@ -15907,7 +15913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>5</v>
       </c>
@@ -15927,7 +15933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>5</v>
       </c>
@@ -15947,7 +15953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>5</v>
       </c>
@@ -15967,7 +15973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>5</v>
       </c>
@@ -15987,7 +15993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>5</v>
       </c>
@@ -16007,7 +16013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>5</v>
       </c>
@@ -16027,7 +16033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>5</v>
       </c>
@@ -16047,7 +16053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>5</v>
       </c>
@@ -16067,7 +16073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>5</v>
       </c>
@@ -16087,7 +16093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>5</v>
       </c>
@@ -16107,7 +16113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>5</v>
       </c>
@@ -16127,7 +16133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>5</v>
       </c>
@@ -16147,7 +16153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>5</v>
       </c>
@@ -16167,7 +16173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>5</v>
       </c>
@@ -16187,7 +16193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>5</v>
       </c>
@@ -16207,7 +16213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>5</v>
       </c>
@@ -16227,7 +16233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>5</v>
       </c>
@@ -16247,7 +16253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>5</v>
       </c>
@@ -16267,7 +16273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>5</v>
       </c>
@@ -16287,7 +16293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>5</v>
       </c>
@@ -16307,7 +16313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>5</v>
       </c>
@@ -16327,7 +16333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>5</v>
       </c>
@@ -16347,7 +16353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>5</v>
       </c>
@@ -16367,7 +16373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>5</v>
       </c>
@@ -16387,7 +16393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>5</v>
       </c>
@@ -16407,7 +16413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>5</v>
       </c>
@@ -16427,7 +16433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>5</v>
       </c>
@@ -16447,7 +16453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>5</v>
       </c>
@@ -16467,7 +16473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>5</v>
       </c>
@@ -16487,7 +16493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>5</v>
       </c>
@@ -16507,7 +16513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>5</v>
       </c>
@@ -16527,7 +16533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>5</v>
       </c>
@@ -16547,7 +16553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>5</v>
       </c>
@@ -16567,7 +16573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>5</v>
       </c>
@@ -16587,7 +16593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>5</v>
       </c>
@@ -16607,7 +16613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>5</v>
       </c>
@@ -16627,7 +16633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>5</v>
       </c>
@@ -16647,7 +16653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>5</v>
       </c>
@@ -16667,7 +16673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>5</v>
       </c>
@@ -16687,7 +16693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>5</v>
       </c>
@@ -16707,7 +16713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>5</v>
       </c>
@@ -16727,7 +16733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>5</v>
       </c>
@@ -16747,7 +16753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>5</v>
       </c>
